--- a/data/ch06/XlsxWriter_insert_image_01.xlsx
+++ b/data/ch06/XlsxWriter_insert_image_01.xlsx
@@ -19,7 +19,7 @@
     <t>그림 삽입(옵션 지정 없음):</t>
   </si>
   <si>
-    <t>그림 삽입(가로와 세로 위치 옵셋 조정):</t>
+    <t>그림 삽입(가로와 세로 위치 오프셋 조정):</t>
   </si>
   <si>
     <t>{'x_offset': 25, 'y_offset': 10}</t>
